--- a/biology/Médecine/André_Mazet/André_Mazet.xlsx
+++ b/biology/Médecine/André_Mazet/André_Mazet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Mazet</t>
+          <t>André_Mazet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Mazet (1793-1821) est un médecin français. Il a observé l’épidémie de fièvre jaune en Espagne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Mazet</t>
+          <t>André_Mazet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">André Mazet est né le 23 décembre 1793 à Grenoble.
 Après avoir suivi des études de médecine à l’école pratique des hôpitaux de Paris, il part en mission officielle, en 1819, à Cadix, pour observer l’épidémie de fièvre jaune qui y sévissait.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Mazet</t>
+          <t>André_Mazet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,15 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Chambres déclarent André Mazet « martyr de l’humanité », en 1821.
 Sur sa pierre tombale est inscrit : « Le docteur Mazet vint au secours de la Catalogne, où régnait la fièvre jaune, et mourut, à Barcelone, le 22 octobre 1821 ».
 À Paris, en 1867, la rue de la Contrescarpe-Saint-André, est nommée rue Mazet.
 À Grenoble, la rue du Docteur Mazet lui est dédiée.
-Médaille de l’aide française durant la peste jaune de Barcelone de 1821[1].</t>
+Médaille de l’aide française durant la peste jaune de Barcelone de 1821.</t>
         </is>
       </c>
     </row>
